--- a/feedback_forms/testing_versions/standard/oil_and_gas_operator_feedback_v070_test_01_good_data.xlsx
+++ b/feedback_forms/testing_versions/standard/oil_and_gas_operator_feedback_v070_test_01_good_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5866ACD0-1E1E-4E29-84F7-3764A1DB7774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBB94F-C01D-4148-A423-C4758F9055C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Zhif8xWJaaT59PJC6XZoiOIMEFGhshymHXermg9Z6T+783lTHl9y1WBD9JGUGcTG5BH05UvoqkoKPFFiU+tS0g==" workbookSaltValue="ffl06+cUclpuK/XVyrMBKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3927" yWindow="1360" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="4663" yWindow="5211" windowWidth="21728" windowHeight="13260" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -3127,22 +3127,22 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" customWidth="1"/>
-    <col min="6" max="6" width="5.703125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="5.703125" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" customWidth="1"/>
+    <col min="6" max="6" width="5.69140625" style="25" customWidth="1"/>
+    <col min="7" max="8" width="5.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3196,14 +3196,14 @@
       <c r="E3" s="27"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -3273,7 +3273,7 @@
       <c r="AF6" s="45"/>
       <c r="AG6" s="45"/>
     </row>
-    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B8" s="61" t="s">
         <v>3</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
     </row>
-    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="46" t="s">
         <v>4</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
     </row>
-    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="46" t="s">
         <v>5</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
     </row>
-    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
     </row>
-    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
     </row>
-    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="48" t="s">
         <v>9</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="49" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="46" t="s">
         <v>13</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
     </row>
-    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
     </row>
-    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="46" t="s">
         <v>15</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
     </row>
-    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="47" t="s">
         <v>16</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="50" t="s">
         <v>17</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="35" t="s">
         <v>18</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
     </row>
-    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="35" t="s">
         <v>19</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
     </row>
-    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="36" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -3877,7 +3877,7 @@
       <c r="AF30" s="51"/>
       <c r="AG30" s="51"/>
     </row>
-    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3913,18 +3913,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="59" t="s">
         <v>246</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="50">
-        <v>2051</v>
+        <v>1002051</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="59" t="s">
         <v>247</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="59" t="s">
         <v>248</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="59" t="s">
         <v>249</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="59" t="s">
         <v>250</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
     </row>
-    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="57" t="s">
         <v>251</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
     </row>
-    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
@@ -4049,7 +4049,7 @@
       <c r="AF39" s="45"/>
       <c r="AG39" s="45"/>
     </row>
-    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B41" s="58" t="s">
         <v>252</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="E41" s="53"/>
       <c r="F41" s="43"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B42" s="60" t="s">
         <v>253</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="E42" s="53"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B43" s="58" t="s">
         <v>254</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="E43" s="53"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B44" s="58" t="s">
         <v>255</v>
       </c>
@@ -4129,7 +4129,7 @@
       <c r="E44" s="53"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B45" s="58" t="s">
         <v>256</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="E45" s="53"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -4210,7 +4210,7 @@
       <c r="AF47" s="45"/>
       <c r="AG47" s="45"/>
     </row>
-    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="63" t="s">
         <v>26</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="E49" s="53"/>
       <c r="F49" s="43"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B50" s="37" t="s">
         <v>28</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="E50" s="53"/>
       <c r="F50" s="43"/>
     </row>
-    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
@@ -4338,7 +4338,7 @@
       <c r="AF52" s="45"/>
       <c r="AG52" s="45"/>
     </row>
-    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" s="58" t="s">
         <v>211</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="43"/>
     </row>
-    <row r="55" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="58" t="s">
         <v>213</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="E55" s="38"/>
       <c r="F55" s="43"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="58" t="s">
         <v>244</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="E56" s="38"/>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="58" t="s">
         <v>212</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="E57" s="38"/>
       <c r="F57" s="43"/>
     </row>
-    <row r="58" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="58" t="s">
         <v>214</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="E58" s="38"/>
       <c r="F58" s="43"/>
     </row>
-    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="58" t="s">
         <v>243</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="43"/>
     </row>
-    <row r="60" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="15" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B60" s="62" t="s">
         <v>263</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="E60" s="38"/>
       <c r="F60" s="43"/>
     </row>
-    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B61" s="37" t="s">
         <v>216</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="E61" s="43"/>
       <c r="F61" s="43"/>
     </row>
-    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B62" s="58" t="s">
         <v>257</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="E62" s="43"/>
       <c r="F62" s="43"/>
     </row>
-    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
@@ -4543,7 +4543,7 @@
       <c r="AF64" s="45"/>
       <c r="AG64" s="45"/>
     </row>
-    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B66" s="37" t="s">
         <v>245</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="43"/>
     </row>
-    <row r="67" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B67" s="58" t="s">
         <v>218</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="E67" s="40"/>
       <c r="F67" s="43"/>
     </row>
-    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B68" s="37" t="s">
         <v>220</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="E68" s="43"/>
       <c r="F68" s="43"/>
     </row>
-    <row r="69" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:33" s="15" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B69" s="58" t="s">
         <v>221</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
     </row>
-    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B70" s="58" t="s">
         <v>258</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="E70" s="43"/>
       <c r="F70" s="43"/>
     </row>
-    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B71" s="58" t="s">
         <v>259</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="E71" s="43"/>
       <c r="F71" s="43"/>
     </row>
-    <row r="72" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B72" s="37" t="s">
         <v>260</v>
       </c>
@@ -4656,7 +4656,7 @@
       <c r="E72" s="43"/>
       <c r="F72" s="43"/>
     </row>
-    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -4692,10 +4692,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:33" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F74" s="43"/>
     </row>
-    <row r="76" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:33" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.4">
       <c r="B76" s="37" t="s">
         <v>262</v>
       </c>
@@ -4760,19 +4760,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="80.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4796,17 +4796,17 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>269</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
         <v>271</v>
       </c>
@@ -4828,72 +4828,72 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="15"/>
       <c r="C13" s="65"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="15"/>
       <c r="C15" s="65"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -4917,25 +4917,25 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="10.703125" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="17"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4949,7 +4949,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4957,15 +4957,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="D13" s="16"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="D14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="D15" s="16"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -5044,7 +5044,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>2</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>6</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>7</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>8</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:18" s="18" customFormat="1" ht="129" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="18" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>9</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="18" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>10</v>
       </c>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:18" s="18" customFormat="1" ht="301" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="18" customFormat="1" ht="320.60000000000002" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>11</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="18" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="18" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>12</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="18" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>13</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="18" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>14</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="18" customFormat="1" ht="272.35000000000002" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="18" customFormat="1" ht="306" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>15</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>16</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>17</v>
       </c>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="18" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>18</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>19</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" ht="247.75" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>20</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" ht="315.35000000000002" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" ht="320.60000000000002" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>21</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>22</v>
       </c>
@@ -5516,77 +5516,77 @@
       </c>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="15"/>
       <c r="G60" s="15"/>
     </row>
@@ -5614,14 +5614,14 @@
       <selection activeCell="B69" sqref="B69:B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="91.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="91.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -5635,12 +5635,12 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5654,7 +5654,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5692,7 +5692,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5706,7 +5706,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>96</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5738,7 +5738,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -5803,7 +5803,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -5817,7 +5817,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -5831,7 +5831,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>201</v>
       </c>
@@ -5848,7 +5848,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -5862,7 +5862,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>206</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>204</v>
       </c>
@@ -5964,7 +5964,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -5995,7 +5995,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="s">
         <v>209</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -6026,7 +6026,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -6043,7 +6043,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>207</v>
       </c>
@@ -6060,7 +6060,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>98</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>203</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>204</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>205</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -6176,7 +6176,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
         <v>210</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -6207,7 +6207,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>207</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>98</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>208</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>202</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>203</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -6323,7 +6323,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -6337,7 +6337,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
@@ -6354,7 +6354,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -6369,7 +6369,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>100</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>101</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>102</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>103</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>104</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>105</v>
       </c>
@@ -6488,7 +6488,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>106</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>107</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>109</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>110</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>111</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>112</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -6621,7 +6621,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B67" s="7"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -6653,7 +6653,7 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>30</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B69" s="2" t="s">
         <v>114</v>
       </c>
@@ -6687,70 +6687,70 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B71" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B75" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B76" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B80" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B84" s="1" t="s">
         <v>125</v>
       </c>
@@ -6767,32 +6767,32 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6831,19 +6831,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>135</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -6906,18 +6906,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6949,12 +6949,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>141</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>143</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>146</v>
       </c>
@@ -7002,17 +7002,17 @@
       <selection activeCell="A11" sqref="A11:R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5859375" customWidth="1"/>
-    <col min="3" max="3" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.1171875" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="19.61328125" customWidth="1"/>
+    <col min="3" max="3" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="13" t="s">
         <v>147</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="17"/>
@@ -7036,7 +7036,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -7047,35 +7047,35 @@
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>135</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>137</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>137</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>137</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>137</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>137</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>137</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>137</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>137</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>137</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>137</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>137</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>137</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>137</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>137</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>137</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>137</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>137</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>137</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>45159.666666666664</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>137</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>137</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>137</v>
       </c>
@@ -7625,15 +7625,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7868,6 +7859,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
@@ -7880,14 +7880,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7904,4 +7896,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/feedback_forms/testing_versions/standard/oil_and_gas_operator_feedback_v070_test_01_good_data.xlsx
+++ b/feedback_forms/testing_versions/standard/oil_and_gas_operator_feedback_v070_test_01_good_data.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBB94F-C01D-4148-A423-C4758F9055C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BEECEC-C01F-46D0-9BC1-417F33375C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Zhif8xWJaaT59PJC6XZoiOIMEFGhshymHXermg9Z6T+783lTHl9y1WBD9JGUGcTG5BH05UvoqkoKPFFiU+tS0g==" workbookSaltValue="ffl06+cUclpuK/XVyrMBKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4663" yWindow="5211" windowWidth="21728" windowHeight="13260" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="8434" yWindow="2331" windowWidth="21729" windowHeight="13260" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="286">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1412,15 +1412,6 @@
   </si>
   <si>
     <t>123-001</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>35.3211</t>
-  </si>
-  <si>
-    <t>-119.5808</t>
   </si>
   <si>
     <t>06/25/2024 00:00</t>
@@ -3128,7 +3119,7 @@
   <dimension ref="B1:AG76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -3929,8 +3920,8 @@
         <v>247</v>
       </c>
       <c r="C33" s="34"/>
-      <c r="D33" s="50" t="s">
-        <v>274</v>
+      <c r="D33" s="50">
+        <v>1234</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
@@ -3941,7 +3932,7 @@
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="66" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
@@ -3951,8 +3942,8 @@
         <v>249</v>
       </c>
       <c r="C35" s="34"/>
-      <c r="D35" s="50" t="s">
-        <v>275</v>
+      <c r="D35" s="50">
+        <v>35.321100000000001</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
@@ -3962,8 +3953,8 @@
         <v>250</v>
       </c>
       <c r="C36" s="34"/>
-      <c r="D36" s="50" t="s">
-        <v>276</v>
+      <c r="D36" s="50">
+        <v>-119.5808</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
@@ -4091,7 +4082,7 @@
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="52" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="43"/>
@@ -4102,7 +4093,7 @@
       </c>
       <c r="C42" s="53"/>
       <c r="D42" s="52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E42" s="53"/>
       <c r="F42" s="43"/>
@@ -4113,7 +4104,7 @@
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="52" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E43" s="53"/>
       <c r="F43" s="43"/>
@@ -4124,7 +4115,7 @@
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="52" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E44" s="53"/>
       <c r="F44" s="43"/>
@@ -4135,7 +4126,7 @@
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="43"/>
@@ -4263,7 +4254,7 @@
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="67" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E50" s="53"/>
       <c r="F50" s="43"/>
@@ -4457,7 +4448,7 @@
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E61" s="43"/>
       <c r="F61" s="43"/>
@@ -4468,7 +4459,7 @@
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E62" s="43"/>
       <c r="F62" s="43"/>
@@ -4596,7 +4587,7 @@
       </c>
       <c r="C67" s="39"/>
       <c r="D67" s="56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="43"/>
@@ -4618,7 +4609,7 @@
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
@@ -4651,7 +4642,7 @@
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E72" s="43"/>
       <c r="F72" s="43"/>
@@ -4701,7 +4692,7 @@
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="67" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F76" s="43"/>
     </row>
@@ -5171,7 +5162,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:18" s="10" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>6</v>
       </c>
